--- a/Assets/Resources/CSV.data/StatInfo/PlayerStat.xlsx
+++ b/Assets/Resources/CSV.data/StatInfo/PlayerStat.xlsx
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +248,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -677,12 +693,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1008,25 +1027,27 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="10.75" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -1080,52 +1101,52 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
         <v>5</v>
       </c>
     </row>
